--- a/sqlProgram/tablenotes.xlsx
+++ b/sqlProgram/tablenotes.xlsx
@@ -1,32 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liping/Desktop/llp/sqlProgram/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liping/Desktop/llp/sqlgithub/sqlProgram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77940498-3A02-314D-AD23-C2EE26B3CA90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0C7646-7625-7244-B6A2-A4766E15618B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{3D379535-2029-1545-9570-F0E30E34705A}"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="27240" windowHeight="16440" xr2:uid="{3D379535-2029-1545-9570-F0E30E34705A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表" sheetId="1" r:id="rId1"/>
+    <sheet name="过程表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>allType</t>
+  </si>
+  <si>
+    <t>主表及附表中一些字段编号的说明,如乔灌草藤</t>
+  </si>
+  <si>
+    <t>altAdd</t>
+  </si>
+  <si>
+    <t>海拔补充增加</t>
+  </si>
+  <si>
+    <t>animalbs</t>
+  </si>
+  <si>
+    <t>动物体重数据</t>
+  </si>
+  <si>
+    <t>animalCounty</t>
+  </si>
+  <si>
+    <t>动物分布县的邮编(animal_id, distribution)</t>
+  </si>
+  <si>
+    <t>AnimalCountyAltitudeResult</t>
+  </si>
+  <si>
+    <t>动物海拔范围，所在栅格，及栅格海拔范围</t>
+  </si>
+  <si>
+    <t>AnimalGridExtremum</t>
+  </si>
+  <si>
+    <t>AnimalGridRange</t>
+  </si>
+  <si>
+    <t>动物每个栅格对应的最左和最上栅格</t>
+  </si>
+  <si>
+    <t>动物对应的上下左右栅格，及对应的东西，南北分布幅度和分布区大小</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,12 +431,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022BE130-4E30-1F4A-A235-A1FADCE1E766}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B897C72-9EED-E54E-9475-BA2885218971}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>